--- a/raport.xlsx
+++ b/raport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crist\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9D2292-1F95-487E-9A78-810AA2663BB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4810A9F4-E59C-413B-8FA7-B1C9F9749175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11443" xr2:uid="{6E0D1324-2252-4DDD-B5DC-DD382C59B723}"/>
   </bookViews>
@@ -496,7 +496,7 @@
   <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
-      <selection activeCell="V20" sqref="V20"/>
+      <selection activeCell="T27" sqref="T27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -644,8 +644,7 @@
         <v>1.6535720825195299</v>
       </c>
       <c r="T4">
-        <f>S4*15</f>
-        <v>24.803581237792947</v>
+        <v>20.5810079574584</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
@@ -698,8 +697,7 @@
         <v>1.6801068782806301</v>
       </c>
       <c r="T5">
-        <f t="shared" ref="T5:T23" si="0">S5*15</f>
-        <v>25.201603174209453</v>
+        <v>19.9606418609619</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
@@ -752,8 +750,7 @@
         <v>2.2440772056579501</v>
       </c>
       <c r="T6">
-        <f t="shared" si="0"/>
-        <v>33.66115808486925</v>
+        <v>25.354331731796201</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
@@ -806,8 +803,7 @@
         <v>2.16142654418945</v>
       </c>
       <c r="T7">
-        <f t="shared" si="0"/>
-        <v>32.421398162841747</v>
+        <v>27.3257830142974</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
@@ -860,8 +856,7 @@
         <v>2.16266894340515</v>
       </c>
       <c r="T8">
-        <f t="shared" si="0"/>
-        <v>32.440034151077249</v>
+        <v>26.1529781818389</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
@@ -914,8 +909,7 @@
         <v>2.11919665336608</v>
       </c>
       <c r="T9">
-        <f t="shared" si="0"/>
-        <v>31.787949800491198</v>
+        <v>26.528759002685501</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
@@ -968,8 +962,7 @@
         <v>2.6979315280914302</v>
       </c>
       <c r="T10">
-        <f t="shared" si="0"/>
-        <v>40.468972921371453</v>
+        <v>24.630498647689802</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
@@ -1022,8 +1015,7 @@
         <v>2.73078417778015</v>
       </c>
       <c r="T11">
-        <f t="shared" si="0"/>
-        <v>40.961762666702249</v>
+        <v>25.208814620971602</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
@@ -1076,8 +1068,7 @@
         <v>2.9449095726013099</v>
       </c>
       <c r="T12">
-        <f t="shared" si="0"/>
-        <v>44.173643589019647</v>
+        <v>23.895444869995099</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
@@ -1130,8 +1121,7 @@
         <v>3.1424887180328298</v>
       </c>
       <c r="T13">
-        <f t="shared" si="0"/>
-        <v>47.137330770492447</v>
+        <v>26.405701160430901</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
@@ -1184,8 +1174,7 @@
         <v>3.33483362197875</v>
       </c>
       <c r="T14">
-        <f t="shared" si="0"/>
-        <v>50.022504329681247</v>
+        <v>31.322244644165</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
@@ -1238,8 +1227,7 @@
         <v>3.5321397781371999</v>
       </c>
       <c r="T15">
-        <f t="shared" si="0"/>
-        <v>52.982096672057999</v>
+        <v>30.642676353454501</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
@@ -1292,8 +1280,7 @@
         <v>3.13052010536193</v>
       </c>
       <c r="T16">
-        <f t="shared" si="0"/>
-        <v>46.957801580428949</v>
+        <v>31.017992734909001</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.3">
@@ -1346,8 +1333,7 @@
         <v>3.5648705959320002</v>
       </c>
       <c r="T17">
-        <f t="shared" si="0"/>
-        <v>53.473058938980003</v>
+        <v>31.887713432312001</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.3">
@@ -1400,8 +1386,7 @@
         <v>3.54734754562377</v>
       </c>
       <c r="T18">
-        <f t="shared" si="0"/>
-        <v>53.210213184356547</v>
+        <v>33.057426452636697</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.3">
@@ -1454,8 +1439,7 @@
         <v>3.53405737876892</v>
       </c>
       <c r="T19">
-        <f t="shared" si="0"/>
-        <v>53.010860681533799</v>
+        <v>32.276363134384098</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.3">
@@ -1508,8 +1492,7 @@
         <v>3.91245293617248</v>
       </c>
       <c r="T20">
-        <f t="shared" si="0"/>
-        <v>58.686794042587202</v>
+        <v>30.8272848129272</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.3">
@@ -1562,8 +1545,7 @@
         <v>3.7659263610839799</v>
       </c>
       <c r="T21">
-        <f t="shared" si="0"/>
-        <v>56.488895416259702</v>
+        <v>30.778486013412401</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.3">
@@ -1616,8 +1598,7 @@
         <v>3.89433741569519</v>
       </c>
       <c r="T22">
-        <f t="shared" si="0"/>
-        <v>58.415061235427849</v>
+        <v>34.414350748062098</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.3">
@@ -1670,8 +1651,7 @@
         <v>3.5960445404052699</v>
       </c>
       <c r="T23">
-        <f t="shared" si="0"/>
-        <v>53.940668106079045</v>
+        <v>41.265732288360503</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.3">
@@ -1680,64 +1660,64 @@
         <v>5.8611202239990189E-2</v>
       </c>
       <c r="C25">
-        <f t="shared" ref="C25:T25" si="1">SUM(C4:C23)/20</f>
+        <f t="shared" ref="C25:T25" si="0">SUM(C4:C23)/20</f>
         <v>0.45800607204437221</v>
       </c>
       <c r="D25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.0293507456779345</v>
       </c>
       <c r="E25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>56.52038024663922</v>
       </c>
       <c r="G25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.4547517299652051E-2</v>
       </c>
       <c r="H25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.24269744157791079</v>
       </c>
       <c r="I25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4.0359489560127217</v>
       </c>
       <c r="J25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>37.167048180103258</v>
       </c>
       <c r="L25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.845014095306393E-2</v>
       </c>
       <c r="M25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.19581536054611159</v>
       </c>
       <c r="N25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.6163208723068179</v>
       </c>
       <c r="O25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>42.157856333255715</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.0473301410675E-2</v>
       </c>
       <c r="R25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.19496383666992126</v>
       </c>
       <c r="S25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.9674846291541996</v>
       </c>
       <c r="T25">
-        <f t="shared" si="1"/>
-        <v>44.512269437313002</v>
+        <f t="shared" si="0"/>
+        <v>28.676711583137461</v>
       </c>
     </row>
   </sheetData>
